--- a/計画/15_反復計画書.xlsx
+++ b/計画/15_反復計画書.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6A29CC18-FE5B-4116-9C7C-F46C24ABF76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3C2CEEF-4D8E-44C3-B4A9-FE36BA32524C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1101475-1C8B-4B77-8783-1B3B30BE8940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="630" windowWidth="18375" windowHeight="10290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="19200" windowHeight="10290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
     <sheet name="サンプル" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -248,16 +246,6 @@
       <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書(新規作成)
-WBS&amp;ガントチャート(新規作成)
-要求仕様書(新規作成)
-システム分析書(新規作成)
-設計仕様書(新規作成)
-テスト計画書(新規作成)
-テスト済のソースコード(新規作成)
-開発体験シート（新規作成）</t>
   </si>
   <si>
     <t xml:space="preserve">反復計画書(更新)
@@ -281,6 +269,51 @@
 発表資料(新規作成)
 開発シート（更新）</t>
   </si>
+  <si>
+    <t>6/2AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/11AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7日間</t>
+    <rPh sb="1" eb="3">
+      <t>ニチカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(新規作成)
+WBS&amp;ガントチャート(新規作成)
+要求仕様書(新規作成)
+システム分析書(新規作成)
+設計仕様書(新規作成)
+テスト計画書(新規作成)
+テスト済のソースコード(新規作成)
+開発体験シート（新規作成）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間が余り次第取り組む。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -289,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -661,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +839,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1129,7 +1165,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1138,7 +1174,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1147,28 +1183,28 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1192,7 +1228,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1201,7 +1237,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1210,7 +1246,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1219,7 +1255,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" ht="81.75" customHeight="1">
+    <row r="10" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1234,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
@@ -1243,7 +1279,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1254,7 +1290,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1263,7 +1299,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
@@ -1272,7 +1308,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1281,7 +1317,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
@@ -1306,11 +1342,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1319,7 +1355,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1366,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -1339,7 +1375,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="39"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -1348,14 +1384,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1385,7 +1421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1400,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1415,7 +1451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1430,69 +1466,81 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="41" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
@@ -1514,6 +1562,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1697,15 +1754,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1713,13 +1761,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/計画/15_反復計画書.xlsx
+++ b/計画/15_反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1101475-1C8B-4B77-8783-1B3B30BE8940}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330D9BC-1753-4435-B62C-577B5720F699}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="19200" windowHeight="10290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="690" windowWidth="19200" windowHeight="10290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -809,6 +809,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -817,9 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,7 +1175,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -1184,21 +1184,21 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1356,7 +1356,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1367,7 +1367,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1534,7 +1534,7 @@
       <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="10"/>
@@ -1571,6 +1571,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1754,12 +1760,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -1769,6 +1769,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1784,13 +1793,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>